--- a/Longitud_Vias_Ferreas.xlsx
+++ b/Longitud_Vias_Ferreas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D65DD4-01F0-4AC3-A54A-B602F000A49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE4B37-46B9-4E15-A0DB-EC395AB9ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_20.1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -155,7 +149,10 @@
     <t>Zacatecas</t>
   </si>
   <si>
-    <t>Longitud de vías ferreas 2023</t>
+    <t>Actualización: mayo 2024.</t>
+  </si>
+  <si>
+    <t>Longitud de vías férreas 2023</t>
   </si>
 </sst>
 </file>
@@ -304,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -341,6 +338,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,14 +592,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.8984375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
@@ -607,21 +607,21 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7">
         <v>133.59100000000001</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="11">
         <v>134.37979999999999</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="11">
         <v>694.13477350477297</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7">
         <v>1593.9371617900333</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11">
         <v>146.464</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7">
         <v>513.37818653768329</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="11">
         <v>2228.6345061496704</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="7">
         <v>102.47766992188222</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11">
         <v>1027.7411337267249</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
         <v>776.92639919048224</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11">
         <v>87.308958157404263</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>685.28516698268061</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11">
         <v>749.23199521687013</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
         <v>906.51183128342177</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="11">
         <v>1032.3170461110294</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7">
         <v>362.90600999205697</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="11">
         <v>311.28539999999998</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7">
         <v>806.32199999999989</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="11">
         <v>647.51331631851053</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
         <v>705.89159149990837</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="11">
         <v>362.76599999999996</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7">
         <v>160.29400000000001</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="11">
         <v>1067.6580864901921</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="7">
         <v>901.83647887546238</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11">
         <v>1586.275838436311</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
         <v>378.07785318460492</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="11">
         <v>713.48343950948833</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
         <v>270.73400000000004</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="11">
         <v>1285.5392019855142</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="7">
         <v>1054.2378619348481</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="13">
         <v>609.43829387515564</v>
@@ -1068,17 +1068,15 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>0</v>
+      <c r="B37" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E38" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Longitud_Vias_Ferreas.xlsx
+++ b/Longitud_Vias_Ferreas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE4B37-46B9-4E15-A0DB-EC395AB9ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFDB7BC-8B09-4E5B-9DD1-83ED2BAA5B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -301,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -338,9 +338,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1068,7 +1065,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Longitud_Vias_Ferreas.xlsx
+++ b/Longitud_Vias_Ferreas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFDB7BC-8B09-4E5B-9DD1-83ED2BAA5B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDC212-F8BB-406C-B8C8-D6502D86A387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -149,10 +149,10 @@
     <t>Zacatecas</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
-  </si>
-  <si>
     <t>Longitud de vías férreas 2023</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
@@ -1066,7 +1066,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">

--- a/Longitud_Vias_Ferreas.xlsx
+++ b/Longitud_Vias_Ferreas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDC212-F8BB-406C-B8C8-D6502D86A387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C661DBA-9F16-45B5-BD9C-1303A053AC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -171,19 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Montserrat Medium"/>
       <family val="2"/>
@@ -197,11 +184,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -299,45 +301,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -586,38 +589,39 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="23.296875" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:5" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7">
@@ -626,26 +630,26 @@
       <c r="D5" s="7">
         <v>55.271000000000001</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>66.080280000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>134.37979999999999</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>12.184000000000001</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>56.778000000000006</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="7">
@@ -654,26 +658,26 @@
       <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>694.13477350477297</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>25.032999999999973</v>
       </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7">
@@ -682,26 +686,26 @@
       <c r="D9" s="7">
         <v>219.60599999999999</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>319.98136199999999</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>146.464</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>26.536000000000001</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>97.186000000000007</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="7">
@@ -710,26 +714,26 @@
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>2228.6345061496704</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>113.68719999999999</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>152.36600000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="7">
@@ -738,26 +742,26 @@
       <c r="D13" s="7">
         <v>96.004999999999995</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>1027.7411337267249</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>46.771000000000001</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>33.005000000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7">
@@ -766,26 +770,26 @@
       <c r="D15" s="7">
         <v>199.48599999999988</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>221.12316600000003</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>87.308958157404263</v>
       </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="7">
@@ -794,26 +798,26 @@
       <c r="D17" s="7">
         <v>62.265000000000001</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>127.52306999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>749.23199521687013</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>139.89699999999999</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <v>192.43200000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="7">
@@ -822,26 +826,26 @@
       <c r="D19" s="7">
         <v>261.92200000000003</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>87.300969999999992</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>1032.3170461110294</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>136.14044999999984</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <v>142.9124066</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7">
@@ -850,26 +854,26 @@
       <c r="D21" s="7">
         <v>1.508</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>12.555</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>311.28539999999998</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>35.439</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>10.323</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="7">
@@ -878,26 +882,26 @@
       <c r="D23" s="7">
         <v>256.9735</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>309.71813700000001</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>647.51331631851053</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>21.862000000000002</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="11">
         <v>11.994</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="7">
@@ -906,26 +910,26 @@
       <c r="D25" s="7">
         <v>28.684440000000002</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>80.555000000000007</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>362.76599999999996</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>96.215000000000018</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="11">
         <v>119.52231999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="7">
@@ -934,26 +938,26 @@
       <c r="D27" s="7">
         <v>2.722</v>
       </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>1067.6580864901921</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>173.96209999999999</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="11">
         <v>166.6951</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="7">
@@ -962,26 +966,26 @@
       <c r="D29" s="7">
         <v>63.590999999999994</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>153.559</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>1586.275838436311</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>84.686000000000007</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="11">
         <v>198.553</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="7">
@@ -990,26 +994,26 @@
       <c r="D31" s="7">
         <v>1.133</v>
       </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="5" t="s">
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>713.48343950948833</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>298.77526</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="11">
         <v>170.34356000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="7">
@@ -1018,26 +1022,26 @@
       <c r="D33" s="7">
         <v>40.535000000000004</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>31.579820000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>1285.5392019855142</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>159.98409999999981</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="11">
         <v>148.83759000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="7">
@@ -1046,11 +1050,11 @@
       <c r="D35" s="7">
         <v>14.98</v>
       </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="12" t="s">
         <v>36</v>
       </c>
@@ -1064,19 +1068,19 @@
         <v>25.905000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Longitud_Vias_Ferreas.xlsx
+++ b/Longitud_Vias_Ferreas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C661DBA-9F16-45B5-BD9C-1303A053AC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909B33B-5438-493D-B643-90E33330C6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_20.1" sheetId="1" r:id="rId1"/>
@@ -149,10 +149,10 @@
     <t>Zacatecas</t>
   </si>
   <si>
-    <t>Longitud de vías férreas 2023</t>
-  </si>
-  <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Actualización: Julio 2025.</t>
+  </si>
+  <si>
+    <t>Longitud de vías férreas 2024</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.296875" style="2" customWidth="1"/>
@@ -598,15 +598,15 @@
     <col min="5" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -634,7 +634,7 @@
         <v>66.080280000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -648,7 +648,7 @@
         <v>56.778000000000006</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -662,21 +662,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>694.13477350477297</v>
+        <v>875.94977350477279</v>
       </c>
       <c r="D8" s="10">
-        <v>25.032999999999973</v>
+        <v>52.299000000000007</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -690,7 +690,7 @@
         <v>319.98136199999999</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
@@ -704,7 +704,7 @@
         <v>97.186000000000007</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
@@ -732,21 +732,21 @@
         <v>152.36600000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="7">
-        <v>102.47766992188222</v>
+        <v>110.30766992188222</v>
       </c>
       <c r="D13" s="7">
-        <v>96.004999999999995</v>
+        <v>101.482</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
@@ -760,7 +760,7 @@
         <v>33.005000000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -774,7 +774,7 @@
         <v>221.12316600000003</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -802,7 +802,7 @@
         <v>127.52306999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
@@ -816,21 +816,21 @@
         <v>192.43200000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="7">
-        <v>906.51183128342177</v>
+        <v>924.8953312834218</v>
       </c>
       <c r="D19" s="7">
-        <v>261.92200000000003</v>
+        <v>262.18200000000002</v>
       </c>
       <c r="E19" s="8">
-        <v>87.300969999999992</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+        <v>89.72596999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
@@ -844,7 +844,7 @@
         <v>142.9124066</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -858,7 +858,7 @@
         <v>12.555</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -872,7 +872,7 @@
         <v>10.323</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
@@ -886,7 +886,7 @@
         <v>309.71813700000001</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -900,7 +900,7 @@
         <v>11.994</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
@@ -914,7 +914,7 @@
         <v>80.555000000000007</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
@@ -928,21 +928,21 @@
         <v>119.52231999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="7">
-        <v>160.29400000000001</v>
+        <v>966.55500000000006</v>
       </c>
       <c r="D27" s="7">
-        <v>2.722</v>
+        <v>47.957999999999998</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -956,7 +956,7 @@
         <v>166.6951</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
@@ -970,7 +970,7 @@
         <v>153.559</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
@@ -984,7 +984,7 @@
         <v>198.553</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
@@ -992,13 +992,13 @@
         <v>378.07785318460492</v>
       </c>
       <c r="D31" s="7">
-        <v>1.133</v>
+        <v>13.654</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>170.34356000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>31.579820000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
@@ -1040,21 +1040,21 @@
         <v>148.83759000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="7">
-        <v>1054.2378619348481</v>
+        <v>1058.538861934848</v>
       </c>
       <c r="D35" s="7">
-        <v>14.98</v>
+        <v>34.557000000000002</v>
       </c>
       <c r="E35" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>36</v>
       </c>
@@ -1068,12 +1068,12 @@
         <v>25.905000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
